--- a/va_facility_data_2025-02-20/Piquette Street VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Piquette%20Street%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Piquette Street VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Piquette%20Street%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Reab78ac8c7de43749b6cdce776c81d75"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R95a59737119a40b7b7ebe0c16862cc22"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rfb07b1abdc25401da5a1e77063456e9d"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R2a99c91eabdc44cd824c1cbe54932aab"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7fc28aa7b6b240999679b2079b4befbd"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R0537aeef4775441e838a13fe169ae831"/>
   </x:sheets>
 </x:workbook>
 </file>
